--- a/templates/order/Счет.xlsx
+++ b/templates/order/Счет.xlsx
@@ -13,8 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Поставщик: Общество с ограниченной ответственностью "Авидевелопмент-М"(ООО"Авидевелопмент-М")</t>
   </si>
@@ -65,13 +63,16 @@
   </si>
   <si>
     <t>Стоимость</t>
+  </si>
+  <si>
+    <t>№</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +119,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -128,12 +136,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -181,48 +189,105 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,197 +590,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E6"/>
+    <sheetView tabSelected="1" zoomScale="123" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="8" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="8"/>
+    <col min="2" max="2" width="44.83203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="6" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="8" customWidth="1"/>
+    <col min="6" max="9" width="8.83203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="31.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="31.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="D8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="14"/>
+      <c r="F8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="14"/>
+      <c r="H8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-    </row>
-    <row r="17" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-    </row>
-    <row r="18" spans="1:1" ht="21.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:1" ht="21.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:1" ht="19.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:1" ht="19.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:1" ht="20.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:1" ht="32.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
+  <mergeCells count="9">
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
   </mergeCells>
   <pageMargins left="6.933099988073875E-2" right="0.11267513276233215" top="0.1025317013520789" bottom="0.1025317013520789" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/templates/order/Счет.xlsx
+++ b/templates/order/Счет.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Desktop/Avi Git/CRM-Avi/templates/order/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meller\Desktop\CRM-Avi\templates\order\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16020"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="16020"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -253,41 +253,41 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -298,6 +298,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -592,103 +595,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="123" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="8"/>
-    <col min="2" max="2" width="44.83203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="8"/>
+    <col min="2" max="2" width="44.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="8" customWidth="1"/>
     <col min="4" max="4" width="6" style="8" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="8" customWidth="1"/>
-    <col min="6" max="9" width="8.83203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="8" customWidth="1"/>
+    <col min="6" max="9" width="8.85546875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-    </row>
-    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+    </row>
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="2"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="2"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="31.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:10" ht="31.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-    </row>
-    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-    </row>
-    <row r="7" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -697,8 +700,8 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -707,35 +710,35 @@
       <c r="C8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="13" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="13" t="s">
+      <c r="G8" s="16"/>
+      <c r="H8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="14"/>
+      <c r="I8" s="16"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
+    <row r="9" spans="1:10" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
   </mergeCells>
   <pageMargins left="6.933099988073875E-2" right="0.11267513276233215" top="0.1025317013520789" bottom="0.1025317013520789" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/templates/order/Счет.xlsx
+++ b/templates/order/Счет.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -17,7 +17,7 @@
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -35,12 +35,6 @@
     <t>ИНН/КПП: 7703561330/773001001</t>
   </si>
   <si>
-    <t>Расчетный счет: 40702810417030008128 в ВТБ 24 (ПАО) г. Москва</t>
-  </si>
-  <si>
-    <t>Корр. счет: 30101810100000000716 БИК банка: 044525716</t>
-  </si>
-  <si>
     <t>Счет № 00205 от 29 февраля 2016 г.</t>
   </si>
   <si>
@@ -66,6 +60,12 @@
   </si>
   <si>
     <t>№</t>
+  </si>
+  <si>
+    <t>Расчетный счет:  в  (ПАО) г. Москва</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Корр. счет:  БИК банка: </t>
   </si>
 </sst>
 </file>
@@ -268,18 +268,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -287,6 +275,18 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -596,7 +596,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="A4" sqref="A4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,86 +610,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="2"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="A3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
       <c r="H3" s="2"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
+      <c r="A4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="31.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="A5" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
     </row>
     <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
+      <c r="A6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="4"/>
@@ -702,26 +702,26 @@
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="E8" s="19"/>
+      <c r="F8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="G8" s="19"/>
+      <c r="H8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="16"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">

--- a/templates/order/Счет.xlsx
+++ b/templates/order/Счет.xlsx
@@ -226,21 +226,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -253,9 +244,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -268,6 +256,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -277,10 +271,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -288,6 +282,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,151 +605,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G4"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="8"/>
-    <col min="2" max="2" width="44.85546875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="6" style="8" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="8" customWidth="1"/>
-    <col min="6" max="9" width="8.85546875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
+    <col min="2" max="2" width="44.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="6" style="12" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" ht="31.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:8" ht="31.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="1:8" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="18" t="s">
+      <c r="E8" s="17"/>
+      <c r="F8" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="18" t="s">
+      <c r="G8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
+  <mergeCells count="7">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A5:G5"/>
     <mergeCell ref="A6:F6"/>
   </mergeCells>
   <pageMargins left="6.933099988073875E-2" right="0.11267513276233215" top="0.1025317013520789" bottom="0.1025317013520789" header="0.3" footer="0.3"/>
